--- a/xlsx/县 (美国)_intext.xlsx
+++ b/xlsx/县 (美国)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>县 (美国)</t>
   </si>
@@ -29,7 +29,7 @@
     <t>堂区</t>
   </si>
   <si>
-    <t>政策_政策_美國_县 (美国)</t>
+    <t>政策_政策_美国_县 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E5%B8%82</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>行政區劃</t>
+    <t>行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%8E%BF</t>
@@ -53,25 +53,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%96%87%E7%B8%A3</t>
   </si>
   <si>
-    <t>洛文縣</t>
+    <t>洛文县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%8D%9A%E7%B4%8D%E8%BF%AA%E8%AB%BE%E9%83%A1</t>
   </si>
   <si>
-    <t>聖博納迪諾郡</t>
+    <t>圣博纳迪诺郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E7%93%A6%E6%AD%90%E9%83%A1</t>
   </si>
   <si>
-    <t>卡拉瓦歐郡</t>
+    <t>卡拉瓦欧郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%A3%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>縣議會</t>
+    <t>县议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%BF%E9%95%BF</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
+    <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%B0</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%89%E4%BA%BA%E5%8F%A3%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>按人口排列的美國城市列表</t>
+    <t>按人口排列的美国城市列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_towns_in_the_United_States</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8E%AE%E5%8D%80_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>鎮區 (美國)</t>
+    <t>镇区 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Consolidated_city-township</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%8D%80</t>
   </si>
   <si>
-    <t>國家紀念區</t>
+    <t>国家纪念区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%AF%93%E5%A4%A7%E5%BB%88%E7%AE%A1%E7%90%86%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>公寓大廈管理委員會</t>
+    <t>公寓大厦管理委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%81%94%E5%90%88%E5%8D%8F%E5%AE%9A</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%BB%BA%E5%88%B6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>非建制地區</t>
+    <t>非建制地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E9%95%87</t>
@@ -311,9 +311,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
   </si>
   <si>
-    <t>行政区划</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%BF</t>
   </si>
   <si>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%82%E5%8D%80_(%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83)</t>
   </si>
   <si>
-    <t>堂區 (行政區劃)</t>
+    <t>堂区 (行政区划)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%96%87%E7%B8%A3_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛文縣 (德克薩斯州)</t>
+    <t>洛文县 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%8E%BF</t>
@@ -2140,7 +2137,7 @@
         <v>97</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2166,10 +2163,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>23</v>
@@ -2195,10 +2192,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2224,10 +2221,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2253,10 +2250,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2282,10 +2279,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2311,10 +2308,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2340,10 +2337,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2398,10 +2395,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2427,10 +2424,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2456,10 +2453,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2485,10 +2482,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
